--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I505"/>
+  <dimension ref="A1:I506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15102,6 +15102,35 @@
         <v>5.48</v>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B506" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C506" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D506" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E506" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F506" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="G506" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="H506" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="I506" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -15078,7 +15078,7 @@
         <v>44602</v>
       </c>
       <c r="B505" t="n">
-        <v>2.9</v>
+        <v>3.191</v>
       </c>
       <c r="C505" t="n">
         <v>3.7</v>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I506"/>
+  <dimension ref="A1:I507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15131,6 +15131,35 @@
         <v>5.97</v>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B507" t="n">
+        <v>5.232</v>
+      </c>
+      <c r="C507" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D507" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="E507" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="F507" t="n">
+        <v>7.235</v>
+      </c>
+      <c r="G507" t="n">
+        <v>7.365</v>
+      </c>
+      <c r="H507" t="n">
+        <v>7.355</v>
+      </c>
+      <c r="I507" t="n">
+        <v>7.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I507"/>
+  <dimension ref="A1:I508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15136,28 +15136,57 @@
         <v>44687</v>
       </c>
       <c r="B507" t="n">
-        <v>5.232</v>
+        <v>4.9</v>
       </c>
       <c r="C507" t="n">
         <v>3.9</v>
       </c>
       <c r="D507" t="n">
-        <v>6.98</v>
+        <v>6.67</v>
       </c>
       <c r="E507" t="n">
-        <v>7.23</v>
+        <v>6.91</v>
       </c>
       <c r="F507" t="n">
-        <v>7.235</v>
+        <v>7</v>
       </c>
       <c r="G507" t="n">
-        <v>7.365</v>
+        <v>7.14</v>
       </c>
       <c r="H507" t="n">
-        <v>7.355</v>
+        <v>6.95</v>
       </c>
       <c r="I507" t="n">
-        <v>7.55</v>
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B508" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C508" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D508" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E508" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F508" t="n">
+        <v>7.505</v>
+      </c>
+      <c r="G508" t="n">
+        <v>7.555</v>
+      </c>
+      <c r="H508" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="I508" t="n">
+        <v>7.905</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I508"/>
+  <dimension ref="A1:I509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15171,22 +15171,51 @@
         <v>3.9</v>
       </c>
       <c r="D508" t="n">
-        <v>7.35</v>
+        <v>7.13</v>
       </c>
       <c r="E508" t="n">
         <v>7.1</v>
       </c>
       <c r="F508" t="n">
-        <v>7.505</v>
+        <v>7.34</v>
       </c>
       <c r="G508" t="n">
-        <v>7.555</v>
+        <v>7.43</v>
       </c>
       <c r="H508" t="n">
         <v>7.54</v>
       </c>
       <c r="I508" t="n">
-        <v>7.905</v>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B509" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C509" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D509" t="n">
+        <v>7.835</v>
+      </c>
+      <c r="E509" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F509" t="n">
+        <v>8</v>
+      </c>
+      <c r="G509" t="n">
+        <v>8</v>
+      </c>
+      <c r="H509" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="I509" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -15200,22 +15200,22 @@
         <v>3.9</v>
       </c>
       <c r="D509" t="n">
-        <v>7.835</v>
+        <v>7.73</v>
       </c>
       <c r="E509" t="n">
         <v>7.9</v>
       </c>
       <c r="F509" t="n">
-        <v>8</v>
+        <v>7.95</v>
       </c>
       <c r="G509" t="n">
-        <v>8</v>
+        <v>7.93</v>
       </c>
       <c r="H509" t="n">
         <v>7.83</v>
       </c>
       <c r="I509" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I509"/>
+  <dimension ref="A1:I510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15218,6 +15218,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B510" t="n">
+        <v>6.635</v>
+      </c>
+      <c r="C510" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D510" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E510" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F510" t="n">
+        <v>7.995</v>
+      </c>
+      <c r="G510" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="H510" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="I510" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -15232,19 +15232,19 @@
         <v>7.79</v>
       </c>
       <c r="E510" t="n">
-        <v>7.92</v>
+        <v>7.84</v>
       </c>
       <c r="F510" t="n">
-        <v>7.995</v>
+        <v>7.9</v>
       </c>
       <c r="G510" t="n">
-        <v>7.97</v>
+        <v>7.91</v>
       </c>
       <c r="H510" t="n">
-        <v>7.95</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I510" t="n">
-        <v>8.109999999999999</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -15241,7 +15241,7 @@
         <v>7.91</v>
       </c>
       <c r="H510" t="n">
-        <v>8.039999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="I510" t="n">
         <v>8.039999999999999</v>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I510"/>
+  <dimension ref="A1:I511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15247,6 +15247,35 @@
         <v>8.039999999999999</v>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B511" t="n">
+        <v>6.641</v>
+      </c>
+      <c r="C511" t="n">
+        <v>6.885</v>
+      </c>
+      <c r="D511" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E511" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="F511" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="G511" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="H511" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="I511" t="n">
+        <v>8.039999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -15255,22 +15255,22 @@
         <v>6.641</v>
       </c>
       <c r="C511" t="n">
-        <v>6.885</v>
+        <v>6.7</v>
       </c>
       <c r="D511" t="n">
-        <v>7.85</v>
+        <v>7.75</v>
       </c>
       <c r="E511" t="n">
-        <v>7.97</v>
+        <v>7.88</v>
       </c>
       <c r="F511" t="n">
-        <v>7.96</v>
+        <v>7.9</v>
       </c>
       <c r="G511" t="n">
-        <v>7.99</v>
+        <v>7.88</v>
       </c>
       <c r="H511" t="n">
-        <v>7.96</v>
+        <v>7.88</v>
       </c>
       <c r="I511" t="n">
         <v>8.039999999999999</v>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -15223,7 +15223,7 @@
         <v>44694</v>
       </c>
       <c r="B510" t="n">
-        <v>6.635</v>
+        <v>6</v>
       </c>
       <c r="C510" t="n">
         <v>3.9</v>
@@ -15252,7 +15252,7 @@
         <v>44704</v>
       </c>
       <c r="B511" t="n">
-        <v>6.641</v>
+        <v>6</v>
       </c>
       <c r="C511" t="n">
         <v>6.7</v>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I511"/>
+  <dimension ref="A1:I512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15276,6 +15276,35 @@
         <v>8.039999999999999</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B512" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C512" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D512" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="E512" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F512" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="G512" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="H512" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="I512" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I512"/>
+  <dimension ref="A1:I513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15281,7 +15281,7 @@
         <v>44720</v>
       </c>
       <c r="B512" t="n">
-        <v>6.65</v>
+        <v>6</v>
       </c>
       <c r="C512" t="n">
         <v>6.7</v>
@@ -15303,6 +15303,35 @@
       </c>
       <c r="I512" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B513" t="n">
+        <v>6</v>
+      </c>
+      <c r="C513" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D513" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="E513" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="F513" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G513" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="H513" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="I513" t="n">
+        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I513"/>
+  <dimension ref="A1:I514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15334,6 +15334,35 @@
         <v>8.109999999999999</v>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B514" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C514" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D514" t="n">
+        <v>8.475</v>
+      </c>
+      <c r="E514" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F514" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="G514" t="n">
+        <v>8.625</v>
+      </c>
+      <c r="H514" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="I514" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I514"/>
+  <dimension ref="A1:I517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15345,22 +15345,109 @@
         <v>6.7</v>
       </c>
       <c r="D514" t="n">
-        <v>8.475</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E514" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F514" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G514" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H514" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="F514" t="n">
+      <c r="I514" t="n">
+        <v>8.550000000000001</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B515" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="C515" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="D515" t="n">
         <v>8.65</v>
       </c>
-      <c r="G514" t="n">
-        <v>8.625</v>
-      </c>
-      <c r="H514" t="n">
+      <c r="E515" t="n">
         <v>8.75</v>
       </c>
-      <c r="I514" t="n">
+      <c r="F515" t="n">
         <v>8.75</v>
+      </c>
+      <c r="G515" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="H515" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="I515" t="n">
+        <v>9.039999999999999</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B516" t="n">
+        <v>5.872</v>
+      </c>
+      <c r="C516" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D516" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E516" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F516" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="G516" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="H516" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="I516" t="n">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B517" t="n">
+        <v>5.872</v>
+      </c>
+      <c r="C517" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D517" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="E517" t="n">
+        <v>9</v>
+      </c>
+      <c r="F517" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="G517" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H517" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="I517" t="n">
+        <v>9.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -15432,22 +15432,22 @@
         <v>6.7</v>
       </c>
       <c r="D517" t="n">
-        <v>8.91</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="E517" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F517" t="n">
         <v>9</v>
       </c>
-      <c r="F517" t="n">
-        <v>9.119999999999999</v>
-      </c>
       <c r="G517" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="H517" t="n">
-        <v>9.19</v>
+        <v>9.07</v>
       </c>
       <c r="I517" t="n">
-        <v>9.18</v>
+        <v>9.06</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I517"/>
+  <dimension ref="A1:I518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15450,6 +15450,35 @@
         <v>9.06</v>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B518" t="n">
+        <v>5.872</v>
+      </c>
+      <c r="C518" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D518" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E518" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F518" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="G518" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="H518" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="I518" t="n">
+        <v>9.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I518"/>
+  <dimension ref="A1:I519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15470,13 +15470,42 @@
         <v>8.949999999999999</v>
       </c>
       <c r="G518" t="n">
-        <v>9.19</v>
+        <v>8.99</v>
       </c>
       <c r="H518" t="n">
         <v>9.01</v>
       </c>
       <c r="I518" t="n">
-        <v>9.25</v>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B519" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="C519" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D519" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E519" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F519" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="G519" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="H519" t="n">
+        <v>9</v>
+      </c>
+      <c r="I519" t="n">
+        <v>9.279999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I519"/>
+  <dimension ref="A1:I521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1187,7 +1187,7 @@
         <v>43909</v>
       </c>
       <c r="B26" t="n">
-        <v>3.181</v>
+        <v>3.04</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
@@ -1216,7 +1216,7 @@
         <v>43910</v>
       </c>
       <c r="B27" t="n">
-        <v>3.158</v>
+        <v>3.04</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
@@ -15078,7 +15078,7 @@
         <v>44602</v>
       </c>
       <c r="B505" t="n">
-        <v>3.191</v>
+        <v>2.9</v>
       </c>
       <c r="C505" t="n">
         <v>3.7</v>
@@ -15104,94 +15104,94 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44623</v>
+        <v>44608</v>
       </c>
       <c r="B506" t="n">
-        <v>2.9</v>
+        <v>2.958</v>
       </c>
       <c r="C506" t="n">
         <v>3.9</v>
       </c>
       <c r="D506" t="n">
-        <v>4.79</v>
+        <v>4.58</v>
       </c>
       <c r="E506" t="n">
-        <v>5.1</v>
+        <v>4.73</v>
       </c>
       <c r="F506" t="n">
-        <v>5.45</v>
+        <v>4.96</v>
       </c>
       <c r="G506" t="n">
-        <v>5.53</v>
+        <v>5.08</v>
       </c>
       <c r="H506" t="n">
-        <v>5.63</v>
+        <v>5.15</v>
       </c>
       <c r="I506" t="n">
-        <v>5.97</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44687</v>
+        <v>44623</v>
       </c>
       <c r="B507" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="C507" t="n">
         <v>3.9</v>
       </c>
       <c r="D507" t="n">
-        <v>6.67</v>
+        <v>4.79</v>
       </c>
       <c r="E507" t="n">
-        <v>6.91</v>
+        <v>5.1</v>
       </c>
       <c r="F507" t="n">
-        <v>7</v>
+        <v>5.45</v>
       </c>
       <c r="G507" t="n">
-        <v>7.14</v>
+        <v>5.53</v>
       </c>
       <c r="H507" t="n">
-        <v>6.95</v>
+        <v>5.63</v>
       </c>
       <c r="I507" t="n">
-        <v>7.33</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44691</v>
+        <v>44687</v>
       </c>
       <c r="B508" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="C508" t="n">
         <v>3.9</v>
       </c>
       <c r="D508" t="n">
-        <v>7.13</v>
+        <v>6.67</v>
       </c>
       <c r="E508" t="n">
-        <v>7.1</v>
+        <v>6.91</v>
       </c>
       <c r="F508" t="n">
-        <v>7.34</v>
+        <v>7</v>
       </c>
       <c r="G508" t="n">
-        <v>7.43</v>
+        <v>7.14</v>
       </c>
       <c r="H508" t="n">
-        <v>7.54</v>
+        <v>6.95</v>
       </c>
       <c r="I508" t="n">
-        <v>7.75</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="B509" t="n">
         <v>5.5</v>
@@ -15200,77 +15200,77 @@
         <v>3.9</v>
       </c>
       <c r="D509" t="n">
-        <v>7.73</v>
+        <v>7.13</v>
       </c>
       <c r="E509" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="F509" t="n">
-        <v>7.95</v>
+        <v>7.34</v>
       </c>
       <c r="G509" t="n">
-        <v>7.93</v>
+        <v>7.43</v>
       </c>
       <c r="H509" t="n">
-        <v>7.83</v>
+        <v>7.54</v>
       </c>
       <c r="I509" t="n">
-        <v>8</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44694</v>
+        <v>44692</v>
       </c>
       <c r="B510" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C510" t="n">
         <v>3.9</v>
       </c>
       <c r="D510" t="n">
-        <v>7.79</v>
+        <v>7.73</v>
       </c>
       <c r="E510" t="n">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="F510" t="n">
-        <v>7.9</v>
+        <v>7.95</v>
       </c>
       <c r="G510" t="n">
-        <v>7.91</v>
+        <v>7.93</v>
       </c>
       <c r="H510" t="n">
-        <v>7.95</v>
+        <v>7.83</v>
       </c>
       <c r="I510" t="n">
-        <v>8.039999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44704</v>
+        <v>44694</v>
       </c>
       <c r="B511" t="n">
         <v>6</v>
       </c>
       <c r="C511" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="D511" t="n">
-        <v>7.75</v>
+        <v>7.79</v>
       </c>
       <c r="E511" t="n">
-        <v>7.88</v>
+        <v>7.84</v>
       </c>
       <c r="F511" t="n">
         <v>7.9</v>
       </c>
       <c r="G511" t="n">
-        <v>7.88</v>
+        <v>7.91</v>
       </c>
       <c r="H511" t="n">
-        <v>7.88</v>
+        <v>7.95</v>
       </c>
       <c r="I511" t="n">
         <v>8.039999999999999</v>
@@ -15278,7 +15278,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44720</v>
+        <v>44704</v>
       </c>
       <c r="B512" t="n">
         <v>6</v>
@@ -15287,27 +15287,27 @@
         <v>6.7</v>
       </c>
       <c r="D512" t="n">
-        <v>7.84</v>
+        <v>7.75</v>
       </c>
       <c r="E512" t="n">
-        <v>7.92</v>
+        <v>7.88</v>
       </c>
       <c r="F512" t="n">
-        <v>7.92</v>
+        <v>7.9</v>
       </c>
       <c r="G512" t="n">
-        <v>7.93</v>
+        <v>7.88</v>
       </c>
       <c r="H512" t="n">
-        <v>7.97</v>
+        <v>7.88</v>
       </c>
       <c r="I512" t="n">
-        <v>8</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44721</v>
+        <v>44720</v>
       </c>
       <c r="B513" t="n">
         <v>6</v>
@@ -15316,114 +15316,114 @@
         <v>6.7</v>
       </c>
       <c r="D513" t="n">
-        <v>7.86</v>
+        <v>7.84</v>
       </c>
       <c r="E513" t="n">
-        <v>8.050000000000001</v>
+        <v>7.92</v>
       </c>
       <c r="F513" t="n">
-        <v>8.1</v>
+        <v>7.92</v>
       </c>
       <c r="G513" t="n">
-        <v>8.130000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="H513" t="n">
-        <v>7.96</v>
+        <v>7.97</v>
       </c>
       <c r="I513" t="n">
-        <v>8.109999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44726</v>
+        <v>44721</v>
       </c>
       <c r="B514" t="n">
-        <v>5.87</v>
+        <v>6</v>
       </c>
       <c r="C514" t="n">
         <v>6.7</v>
       </c>
       <c r="D514" t="n">
-        <v>8.300000000000001</v>
+        <v>7.86</v>
       </c>
       <c r="E514" t="n">
-        <v>8.4</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F514" t="n">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="G514" t="n">
-        <v>8.5</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="H514" t="n">
-        <v>8.550000000000001</v>
+        <v>7.96</v>
       </c>
       <c r="I514" t="n">
-        <v>8.550000000000001</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44727</v>
+        <v>44726</v>
       </c>
       <c r="B515" t="n">
-        <v>6.36</v>
+        <v>5.87</v>
       </c>
       <c r="C515" t="n">
-        <v>7.24</v>
+        <v>6.7</v>
       </c>
       <c r="D515" t="n">
-        <v>8.65</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E515" t="n">
-        <v>8.75</v>
+        <v>8.4</v>
       </c>
       <c r="F515" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="G515" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="H515" t="n">
-        <v>8.880000000000001</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I515" t="n">
-        <v>9.039999999999999</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44728</v>
+        <v>44727</v>
       </c>
       <c r="B516" t="n">
-        <v>5.872</v>
+        <v>6.36</v>
       </c>
       <c r="C516" t="n">
-        <v>6.7</v>
+        <v>7.24</v>
       </c>
       <c r="D516" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="E516" t="n">
         <v>8.75</v>
       </c>
-      <c r="E516" t="n">
-        <v>8.85</v>
-      </c>
       <c r="F516" t="n">
-        <v>8.949999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="G516" t="n">
-        <v>8.970000000000001</v>
+        <v>8.75</v>
       </c>
       <c r="H516" t="n">
-        <v>8.98</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="I516" t="n">
-        <v>9.06</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44729</v>
+        <v>44728</v>
       </c>
       <c r="B517" t="n">
         <v>5.872</v>
@@ -15432,19 +15432,19 @@
         <v>6.7</v>
       </c>
       <c r="D517" t="n">
-        <v>8.789999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="E517" t="n">
-        <v>8.880000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="F517" t="n">
-        <v>9</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="G517" t="n">
-        <v>9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="H517" t="n">
-        <v>9.07</v>
+        <v>8.98</v>
       </c>
       <c r="I517" t="n">
         <v>9.06</v>
@@ -15452,7 +15452,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44732</v>
+        <v>44729</v>
       </c>
       <c r="B518" t="n">
         <v>5.872</v>
@@ -15461,33 +15461,33 @@
         <v>6.7</v>
       </c>
       <c r="D518" t="n">
-        <v>8.75</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="E518" t="n">
-        <v>8.85</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F518" t="n">
-        <v>8.949999999999999</v>
+        <v>9</v>
       </c>
       <c r="G518" t="n">
-        <v>8.99</v>
+        <v>9</v>
       </c>
       <c r="H518" t="n">
-        <v>9.01</v>
+        <v>9.07</v>
       </c>
       <c r="I518" t="n">
-        <v>9.1</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B519" t="n">
-        <v>5.873</v>
+        <v>5.872</v>
       </c>
       <c r="C519" t="n">
-        <v>8.25</v>
+        <v>6.7</v>
       </c>
       <c r="D519" t="n">
         <v>8.75</v>
@@ -15499,13 +15499,71 @@
         <v>8.949999999999999</v>
       </c>
       <c r="G519" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="H519" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="I519" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B520" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="C520" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D520" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E520" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="F520" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="G520" t="n">
         <v>9.06</v>
       </c>
-      <c r="H519" t="n">
+      <c r="H520" t="n">
         <v>9</v>
       </c>
-      <c r="I519" t="n">
-        <v>9.279999999999999</v>
+      <c r="I520" t="n">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B521" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="C521" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D521" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="E521" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="F521" t="n">
+        <v>9</v>
+      </c>
+      <c r="G521" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="H521" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="I521" t="n">
+        <v>9.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I521"/>
+  <dimension ref="A1:I522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15566,6 +15566,35 @@
         <v>9.16</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B522" t="n">
+        <v>5.875</v>
+      </c>
+      <c r="C522" t="n">
+        <v>8.483000000000001</v>
+      </c>
+      <c r="D522" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="E522" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F522" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G522" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H522" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="I522" t="n">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I522"/>
+  <dimension ref="A1:I523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15574,13 +15574,13 @@
         <v>5.875</v>
       </c>
       <c r="C522" t="n">
-        <v>8.483000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="D522" t="n">
         <v>8.789999999999999</v>
       </c>
       <c r="E522" t="n">
-        <v>8.83</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="F522" t="n">
         <v>8.800000000000001</v>
@@ -15592,7 +15592,36 @@
         <v>8.789999999999999</v>
       </c>
       <c r="I522" t="n">
-        <v>8.859999999999999</v>
+        <v>8.949999999999999</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B523" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="C523" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D523" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="E523" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="F523" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="G523" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="H523" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="I523" t="n">
+        <v>8.83</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -15600,28 +15600,28 @@
         <v>44736</v>
       </c>
       <c r="B523" t="n">
-        <v>6.661</v>
+        <v>5.876</v>
       </c>
       <c r="C523" t="n">
         <v>8.25</v>
       </c>
       <c r="D523" t="n">
-        <v>8.82</v>
+        <v>8.58</v>
       </c>
       <c r="E523" t="n">
+        <v>8.574999999999999</v>
+      </c>
+      <c r="F523" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="F523" t="n">
-        <v>8.84</v>
-      </c>
       <c r="G523" t="n">
-        <v>8.84</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="H523" t="n">
-        <v>8.84</v>
+        <v>8.5</v>
       </c>
       <c r="I523" t="n">
-        <v>8.83</v>
+        <v>8.710000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -15609,7 +15609,7 @@
         <v>8.58</v>
       </c>
       <c r="E523" t="n">
-        <v>8.574999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F523" t="n">
         <v>8.449999999999999</v>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I523"/>
+  <dimension ref="A1:I525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15624,6 +15624,64 @@
         <v>8.710000000000001</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B524" t="n">
+        <v>6.366</v>
+      </c>
+      <c r="C524" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D524" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="E524" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="F524" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="G524" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="H524" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I524" t="n">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B525" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="C525" t="n">
+        <v>8.484999999999999</v>
+      </c>
+      <c r="D525" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="E525" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="F525" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="G525" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="H525" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="I525" t="n">
+        <v>8.539999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I525"/>
+  <dimension ref="A1:I526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15661,25 +15661,54 @@
         <v>5.876</v>
       </c>
       <c r="C525" t="n">
-        <v>8.484999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="D525" t="n">
-        <v>8.66</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="E525" t="n">
-        <v>8.66</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="F525" t="n">
-        <v>8.640000000000001</v>
+        <v>8.52</v>
       </c>
       <c r="G525" t="n">
-        <v>8.640000000000001</v>
+        <v>8.52</v>
       </c>
       <c r="H525" t="n">
         <v>8.66</v>
       </c>
       <c r="I525" t="n">
         <v>8.539999999999999</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B526" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="C526" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D526" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="E526" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="F526" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="G526" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="H526" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="I526" t="n">
+        <v>8.699999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I526"/>
+  <dimension ref="A1:I527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15711,6 +15711,35 @@
         <v>8.699999999999999</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B527" t="n">
+        <v>5.877</v>
+      </c>
+      <c r="C527" t="n">
+        <v>8.489000000000001</v>
+      </c>
+      <c r="D527" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="E527" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="F527" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="G527" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="H527" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="I527" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I527"/>
+  <dimension ref="A1:I528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15719,10 +15719,10 @@
         <v>5.877</v>
       </c>
       <c r="C527" t="n">
-        <v>8.489000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="D527" t="n">
-        <v>8.720000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="E527" t="n">
         <v>8.710000000000001</v>
@@ -15738,6 +15738,35 @@
       </c>
       <c r="I527" t="n">
         <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B528" t="n">
+        <v>5.878</v>
+      </c>
+      <c r="C528" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="D528" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="E528" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F528" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="G528" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="H528" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="I528" t="n">
+        <v>8.699999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I528"/>
+  <dimension ref="A1:I529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15748,25 +15748,54 @@
         <v>5.878</v>
       </c>
       <c r="C528" t="n">
-        <v>8.49</v>
+        <v>8.25</v>
       </c>
       <c r="D528" t="n">
-        <v>8.68</v>
+        <v>8.56</v>
       </c>
       <c r="E528" t="n">
-        <v>8.779999999999999</v>
+        <v>8.66</v>
       </c>
       <c r="F528" t="n">
         <v>8.68</v>
       </c>
       <c r="G528" t="n">
-        <v>8.81</v>
+        <v>8.69</v>
       </c>
       <c r="H528" t="n">
         <v>8.67</v>
       </c>
       <c r="I528" t="n">
         <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B529" t="n">
+        <v>6.666</v>
+      </c>
+      <c r="C529" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D529" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="E529" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="F529" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="G529" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="H529" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I529" t="n">
+        <v>8.710000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I529"/>
+  <dimension ref="A1:I530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15798,6 +15798,35 @@
         <v>8.710000000000001</v>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B530" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C530" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D530" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="E530" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="F530" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="G530" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="H530" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="I530" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I530"/>
+  <dimension ref="A1:I531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15827,6 +15827,35 @@
         <v>8.699999999999999</v>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B531" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C531" t="n">
+        <v>8.494999999999999</v>
+      </c>
+      <c r="D531" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="E531" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F531" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="G531" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="H531" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="I531" t="n">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I531"/>
+  <dimension ref="A1:I532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15835,25 +15835,54 @@
         <v>5.88</v>
       </c>
       <c r="C531" t="n">
-        <v>8.494999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="D531" t="n">
-        <v>8.68</v>
+        <v>8.56</v>
       </c>
       <c r="E531" t="n">
-        <v>8.779999999999999</v>
+        <v>8.66</v>
       </c>
       <c r="F531" t="n">
-        <v>8.789999999999999</v>
+        <v>8.67</v>
       </c>
       <c r="G531" t="n">
-        <v>8.82</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H531" t="n">
         <v>8.710000000000001</v>
       </c>
       <c r="I531" t="n">
-        <v>8.859999999999999</v>
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B532" t="n">
+        <v>5.881</v>
+      </c>
+      <c r="C532" t="n">
+        <v>8.497</v>
+      </c>
+      <c r="D532" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="E532" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="F532" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="G532" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H532" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="I532" t="n">
+        <v>8.74</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -15864,7 +15864,7 @@
         <v>5.881</v>
       </c>
       <c r="C532" t="n">
-        <v>8.497</v>
+        <v>8.25</v>
       </c>
       <c r="D532" t="n">
         <v>8.56</v>
@@ -15879,7 +15879,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="H532" t="n">
-        <v>8.83</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I532" t="n">
         <v>8.74</v>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I532"/>
+  <dimension ref="A1:I533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15885,6 +15885,35 @@
         <v>8.74</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B533" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="C533" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D533" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E533" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F533" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="G533" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="H533" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="I533" t="n">
+        <v>8.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I533"/>
+  <dimension ref="A1:I534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15914,6 +15914,35 @@
         <v>8.82</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B534" t="n">
+        <v>8.698</v>
+      </c>
+      <c r="C534" t="n">
+        <v>8.814</v>
+      </c>
+      <c r="D534" t="n">
+        <v>8.925000000000001</v>
+      </c>
+      <c r="E534" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="F534" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="G534" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="H534" t="n">
+        <v>8.984999999999999</v>
+      </c>
+      <c r="I534" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I534"/>
+  <dimension ref="A1:I535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15922,10 +15922,10 @@
         <v>8.698</v>
       </c>
       <c r="C534" t="n">
-        <v>8.814</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D534" t="n">
-        <v>8.925000000000001</v>
+        <v>8.81</v>
       </c>
       <c r="E534" t="n">
         <v>8.789999999999999</v>
@@ -15937,10 +15937,39 @@
         <v>8.81</v>
       </c>
       <c r="H534" t="n">
-        <v>8.984999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="I534" t="n">
         <v>8.85</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B535" t="n">
+        <v>8.698</v>
+      </c>
+      <c r="C535" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D535" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="E535" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F535" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="G535" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="H535" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="I535" t="n">
+        <v>9.115</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I535"/>
+  <dimension ref="A1:I536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15960,7 +15960,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="F535" t="n">
-        <v>9.130000000000001</v>
+        <v>8.82</v>
       </c>
       <c r="G535" t="n">
         <v>8.82</v>
@@ -15969,6 +15969,35 @@
         <v>8.890000000000001</v>
       </c>
       <c r="I535" t="n">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B536" t="n">
+        <v>8.702999999999999</v>
+      </c>
+      <c r="C536" t="n">
+        <v>8.818</v>
+      </c>
+      <c r="D536" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E536" t="n">
+        <v>9</v>
+      </c>
+      <c r="F536" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="G536" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="H536" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="I536" t="n">
         <v>9.115</v>
       </c>
     </row>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I536"/>
+  <dimension ref="A1:I537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15980,7 +15980,7 @@
         <v>8.702999999999999</v>
       </c>
       <c r="C536" t="n">
-        <v>8.818</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D536" t="n">
         <v>8.949999999999999</v>
@@ -15998,7 +15998,36 @@
         <v>9.050000000000001</v>
       </c>
       <c r="I536" t="n">
-        <v>9.115</v>
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B537" t="n">
+        <v>8.755000000000001</v>
+      </c>
+      <c r="C537" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D537" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E537" t="n">
+        <v>9</v>
+      </c>
+      <c r="F537" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="G537" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="H537" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="I537" t="n">
+        <v>9.050000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I537"/>
+  <dimension ref="A1:I538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16030,6 +16030,35 @@
         <v>9.050000000000001</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B538" t="n">
+        <v>8.755000000000001</v>
+      </c>
+      <c r="C538" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D538" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E538" t="n">
+        <v>9.074999999999999</v>
+      </c>
+      <c r="F538" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="G538" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="H538" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="I538" t="n">
+        <v>9.050000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I538"/>
+  <dimension ref="A1:I540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16044,7 +16044,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="E538" t="n">
-        <v>9.074999999999999</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="F538" t="n">
         <v>9.01</v>
@@ -16057,6 +16057,64 @@
       </c>
       <c r="I538" t="n">
         <v>9.050000000000001</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B539" t="n">
+        <v>8.757</v>
+      </c>
+      <c r="C539" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D539" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E539" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="F539" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="G539" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="H539" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="I539" t="n">
+        <v>9.050000000000001</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B540" t="n">
+        <v>8.757</v>
+      </c>
+      <c r="C540" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D540" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E540" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="F540" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="G540" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="H540" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="I540" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I540"/>
+  <dimension ref="A1:I541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16117,6 +16117,35 @@
         <v>9</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B541" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="C541" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D541" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E541" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F541" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="G541" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="H541" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="I541" t="n">
+        <v>9.050000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I541"/>
+  <dimension ref="A1:I542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16146,6 +16146,35 @@
         <v>9.050000000000001</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B542" t="n">
+        <v>8.762</v>
+      </c>
+      <c r="C542" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D542" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E542" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F542" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="G542" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="H542" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="I542" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I542"/>
+  <dimension ref="A1:I543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16175,6 +16175,35 @@
         <v>8.800000000000001</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B543" t="n">
+        <v>8.711</v>
+      </c>
+      <c r="C543" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D543" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="E543" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="F543" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="G543" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="H543" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="I543" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I543"/>
+  <dimension ref="A1:I544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16204,6 +16204,35 @@
         <v>8.6</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B544" t="n">
+        <v>8.712</v>
+      </c>
+      <c r="C544" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D544" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="E544" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F544" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="G544" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="H544" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="I544" t="n">
+        <v>8.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I544"/>
+  <dimension ref="A1:I545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16233,6 +16233,35 @@
         <v>8.27</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B545" t="n">
+        <v>8.712999999999999</v>
+      </c>
+      <c r="C545" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D545" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E545" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F545" t="n">
+        <v>8.285</v>
+      </c>
+      <c r="G545" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="H545" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I545"/>
+  <dimension ref="A1:I546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16247,19 +16247,48 @@
         <v>8.15</v>
       </c>
       <c r="E545" t="n">
-        <v>8.300000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="F545" t="n">
-        <v>8.285</v>
+        <v>8.1</v>
       </c>
       <c r="G545" t="n">
-        <v>8.289999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="H545" t="n">
         <v>8.1</v>
       </c>
       <c r="I545" t="n">
         <v>8.1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B546" t="n">
+        <v>6.853</v>
+      </c>
+      <c r="C546" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D546" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="E546" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F546" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G546" t="n">
+        <v>8.234999999999999</v>
+      </c>
+      <c r="H546" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="I546" t="n">
+        <v>8.01</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I546"/>
+  <dimension ref="A1:I547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16276,19 +16276,48 @@
         <v>8.16</v>
       </c>
       <c r="E546" t="n">
-        <v>8.279999999999999</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F546" t="n">
         <v>8.1</v>
       </c>
       <c r="G546" t="n">
-        <v>8.234999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="H546" t="n">
         <v>8.039999999999999</v>
       </c>
       <c r="I546" t="n">
         <v>8.01</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B547" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="C547" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D547" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="E547" t="n">
+        <v>8.205</v>
+      </c>
+      <c r="F547" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G547" t="n">
+        <v>8.195</v>
+      </c>
+      <c r="H547" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="I547" t="n">
+        <v>7.95</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -16302,19 +16302,19 @@
         <v>7.9</v>
       </c>
       <c r="D547" t="n">
-        <v>8.17</v>
+        <v>7.95</v>
       </c>
       <c r="E547" t="n">
-        <v>8.205</v>
+        <v>7.95</v>
       </c>
       <c r="F547" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G547" t="n">
-        <v>8.195</v>
+        <v>8</v>
       </c>
       <c r="H547" t="n">
-        <v>8.16</v>
+        <v>7.95</v>
       </c>
       <c r="I547" t="n">
         <v>7.95</v>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I547"/>
+  <dimension ref="A1:I548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16320,6 +16320,35 @@
         <v>7.95</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B548" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C548" t="n">
+        <v>7.838</v>
+      </c>
+      <c r="D548" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="E548" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="F548" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="G548" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="H548" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="I548" t="n">
+        <v>8.085000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I548"/>
+  <dimension ref="A1:I549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16349,6 +16349,35 @@
         <v>8.085000000000001</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B549" t="n">
+        <v>7.921</v>
+      </c>
+      <c r="C549" t="n">
+        <v>7.839</v>
+      </c>
+      <c r="D549" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E549" t="n">
+        <v>8.125</v>
+      </c>
+      <c r="F549" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="G549" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="H549" t="n">
+        <v>8.125</v>
+      </c>
+      <c r="I549" t="n">
+        <v>8.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I549"/>
+  <dimension ref="A1:I550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16328,25 +16328,25 @@
         <v>7.92</v>
       </c>
       <c r="C548" t="n">
-        <v>7.838</v>
+        <v>7.66</v>
       </c>
       <c r="D548" t="n">
-        <v>8.119999999999999</v>
+        <v>8</v>
       </c>
       <c r="E548" t="n">
-        <v>8.119999999999999</v>
+        <v>8</v>
       </c>
       <c r="F548" t="n">
         <v>8.140000000000001</v>
       </c>
       <c r="G548" t="n">
-        <v>8.15</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="H548" t="n">
-        <v>8.119999999999999</v>
+        <v>8</v>
       </c>
       <c r="I548" t="n">
-        <v>8.085000000000001</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="549">
@@ -16357,25 +16357,54 @@
         <v>7.921</v>
       </c>
       <c r="C549" t="n">
-        <v>7.839</v>
+        <v>7.66</v>
       </c>
       <c r="D549" t="n">
-        <v>8.1</v>
+        <v>7.98</v>
       </c>
       <c r="E549" t="n">
-        <v>8.125</v>
+        <v>8</v>
       </c>
       <c r="F549" t="n">
-        <v>8.140000000000001</v>
+        <v>8.02</v>
       </c>
       <c r="G549" t="n">
-        <v>8.18</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="H549" t="n">
-        <v>8.125</v>
+        <v>8</v>
       </c>
       <c r="I549" t="n">
-        <v>8.09</v>
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B550" t="n">
+        <v>7.944</v>
+      </c>
+      <c r="C550" t="n">
+        <v>7.963</v>
+      </c>
+      <c r="D550" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="E550" t="n">
+        <v>8.175000000000001</v>
+      </c>
+      <c r="F550" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="G550" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="H550" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="I550" t="n">
+        <v>8.115</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I550"/>
+  <dimension ref="A1:I551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16386,25 +16386,54 @@
         <v>7.944</v>
       </c>
       <c r="C550" t="n">
-        <v>7.963</v>
+        <v>7.78</v>
       </c>
       <c r="D550" t="n">
+        <v>8</v>
+      </c>
+      <c r="E550" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="F550" t="n">
         <v>8.119999999999999</v>
       </c>
-      <c r="E550" t="n">
-        <v>8.175000000000001</v>
-      </c>
-      <c r="F550" t="n">
-        <v>8.220000000000001</v>
-      </c>
       <c r="G550" t="n">
-        <v>8.23</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="H550" t="n">
-        <v>8.25</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="I550" t="n">
-        <v>8.115</v>
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B551" t="n">
+        <v>7.945</v>
+      </c>
+      <c r="C551" t="n">
+        <v>7.964</v>
+      </c>
+      <c r="D551" t="n">
+        <v>8</v>
+      </c>
+      <c r="E551" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F551" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="G551" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="H551" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="I551" t="n">
+        <v>8.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I551"/>
+  <dimension ref="A1:I552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16415,25 +16415,54 @@
         <v>7.945</v>
       </c>
       <c r="C551" t="n">
-        <v>7.964</v>
+        <v>7.78</v>
       </c>
       <c r="D551" t="n">
         <v>8</v>
       </c>
       <c r="E551" t="n">
-        <v>8.18</v>
+        <v>8.06</v>
       </c>
       <c r="F551" t="n">
-        <v>8.24</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G551" t="n">
-        <v>8.27</v>
+        <v>8.15</v>
       </c>
       <c r="H551" t="n">
         <v>8.17</v>
       </c>
       <c r="I551" t="n">
-        <v>8.19</v>
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B552" t="n">
+        <v>7.945</v>
+      </c>
+      <c r="C552" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="D552" t="n">
+        <v>7.915</v>
+      </c>
+      <c r="E552" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F552" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G552" t="n">
+        <v>8.135</v>
+      </c>
+      <c r="H552" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="I552" t="n">
+        <v>8.09</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I552"/>
+  <dimension ref="A1:I554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16447,22 +16447,80 @@
         <v>7.78</v>
       </c>
       <c r="D552" t="n">
-        <v>7.915</v>
+        <v>7.95</v>
       </c>
       <c r="E552" t="n">
-        <v>7.98</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F552" t="n">
         <v>8.1</v>
       </c>
       <c r="G552" t="n">
-        <v>8.135</v>
+        <v>8.15</v>
       </c>
       <c r="H552" t="n">
         <v>8.130000000000001</v>
       </c>
       <c r="I552" t="n">
         <v>8.09</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B553" t="n">
+        <v>7.999</v>
+      </c>
+      <c r="C553" t="n">
+        <v>7.985</v>
+      </c>
+      <c r="D553" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="E553" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="F553" t="n">
+        <v>8</v>
+      </c>
+      <c r="G553" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H553" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="I553" t="n">
+        <v>8.154999999999999</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B554" t="n">
+        <v>7.999</v>
+      </c>
+      <c r="C554" t="n">
+        <v>7.885</v>
+      </c>
+      <c r="D554" t="n">
+        <v>7.865</v>
+      </c>
+      <c r="E554" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="F554" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="G554" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="H554" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I554" t="n">
+        <v>7.995</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I554"/>
+  <dimension ref="A1:I555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16523,6 +16523,35 @@
         <v>7.995</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B555" t="n">
+        <v>7.484</v>
+      </c>
+      <c r="C555" t="n">
+        <v>7.585</v>
+      </c>
+      <c r="D555" t="n">
+        <v>7.425</v>
+      </c>
+      <c r="E555" t="n">
+        <v>7.575</v>
+      </c>
+      <c r="F555" t="n">
+        <v>7.935</v>
+      </c>
+      <c r="G555" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="H555" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="I555" t="n">
+        <v>7.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I555"/>
+  <dimension ref="A1:I556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16473,13 +16473,13 @@
         <v>7.999</v>
       </c>
       <c r="C553" t="n">
-        <v>7.985</v>
+        <v>7.8</v>
       </c>
       <c r="D553" t="n">
-        <v>7.78</v>
+        <v>7.84</v>
       </c>
       <c r="E553" t="n">
-        <v>8.09</v>
+        <v>8</v>
       </c>
       <c r="F553" t="n">
         <v>8</v>
@@ -16491,7 +16491,7 @@
         <v>8.07</v>
       </c>
       <c r="I553" t="n">
-        <v>8.154999999999999</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="554">
@@ -16502,25 +16502,25 @@
         <v>7.999</v>
       </c>
       <c r="C554" t="n">
-        <v>7.885</v>
+        <v>7.8</v>
       </c>
       <c r="D554" t="n">
-        <v>7.865</v>
+        <v>7.78</v>
       </c>
       <c r="E554" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F554" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="G554" t="n">
         <v>7.89</v>
       </c>
-      <c r="F554" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="G554" t="n">
-        <v>7.96</v>
-      </c>
       <c r="H554" t="n">
-        <v>8.050000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="I554" t="n">
-        <v>7.995</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="555">
@@ -16531,25 +16531,54 @@
         <v>7.484</v>
       </c>
       <c r="C555" t="n">
-        <v>7.585</v>
+        <v>7.4</v>
       </c>
       <c r="D555" t="n">
-        <v>7.425</v>
+        <v>7.5</v>
       </c>
       <c r="E555" t="n">
-        <v>7.575</v>
+        <v>7.71</v>
       </c>
       <c r="F555" t="n">
-        <v>7.935</v>
+        <v>7.86</v>
       </c>
       <c r="G555" t="n">
-        <v>7.89</v>
+        <v>7.85</v>
       </c>
       <c r="H555" t="n">
-        <v>7.89</v>
+        <v>7.87</v>
       </c>
       <c r="I555" t="n">
-        <v>7.89</v>
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B556" t="n">
+        <v>7.071</v>
+      </c>
+      <c r="C556" t="n">
+        <v>7.284</v>
+      </c>
+      <c r="D556" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E556" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="F556" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="G556" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="H556" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="I556" t="n">
+        <v>7.825</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I556"/>
+  <dimension ref="A1:I557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16560,7 +16560,7 @@
         <v>7.071</v>
       </c>
       <c r="C556" t="n">
-        <v>7.284</v>
+        <v>7.1</v>
       </c>
       <c r="D556" t="n">
         <v>7.3</v>
@@ -16578,7 +16578,36 @@
         <v>7.65</v>
       </c>
       <c r="I556" t="n">
-        <v>7.825</v>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B557" t="n">
+        <v>7.019</v>
+      </c>
+      <c r="C557" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="D557" t="n">
+        <v>7.425</v>
+      </c>
+      <c r="E557" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="F557" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="G557" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="H557" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="I557" t="n">
+        <v>7.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -16589,25 +16589,25 @@
         <v>7.019</v>
       </c>
       <c r="C557" t="n">
-        <v>7.05</v>
+        <v>7.284</v>
       </c>
       <c r="D557" t="n">
         <v>7.425</v>
       </c>
       <c r="E557" t="n">
-        <v>7.41</v>
+        <v>7.525</v>
       </c>
       <c r="F557" t="n">
-        <v>7.64</v>
+        <v>7.625</v>
       </c>
       <c r="G557" t="n">
-        <v>7.43</v>
+        <v>7.625</v>
       </c>
       <c r="H557" t="n">
-        <v>7.56</v>
+        <v>7.625</v>
       </c>
       <c r="I557" t="n">
-        <v>7.56</v>
+        <v>7.625</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -15368,7 +15368,7 @@
         <v>44726</v>
       </c>
       <c r="B515" t="n">
-        <v>5.87</v>
+        <v>5.5</v>
       </c>
       <c r="C515" t="n">
         <v>6.7</v>
@@ -15397,7 +15397,7 @@
         <v>44727</v>
       </c>
       <c r="B516" t="n">
-        <v>6.36</v>
+        <v>5.5</v>
       </c>
       <c r="C516" t="n">
         <v>7.24</v>
@@ -15426,7 +15426,7 @@
         <v>44728</v>
       </c>
       <c r="B517" t="n">
-        <v>5.872</v>
+        <v>5.5</v>
       </c>
       <c r="C517" t="n">
         <v>6.7</v>
@@ -15455,7 +15455,7 @@
         <v>44729</v>
       </c>
       <c r="B518" t="n">
-        <v>5.872</v>
+        <v>5.5</v>
       </c>
       <c r="C518" t="n">
         <v>6.7</v>
@@ -15484,7 +15484,7 @@
         <v>44732</v>
       </c>
       <c r="B519" t="n">
-        <v>5.872</v>
+        <v>5.5</v>
       </c>
       <c r="C519" t="n">
         <v>6.7</v>
@@ -15513,7 +15513,7 @@
         <v>44733</v>
       </c>
       <c r="B520" t="n">
-        <v>5.873</v>
+        <v>5.5</v>
       </c>
       <c r="C520" t="n">
         <v>8.25</v>
@@ -15542,7 +15542,7 @@
         <v>44734</v>
       </c>
       <c r="B521" t="n">
-        <v>5.873</v>
+        <v>5.5</v>
       </c>
       <c r="C521" t="n">
         <v>8.25</v>
@@ -15571,7 +15571,7 @@
         <v>44735</v>
       </c>
       <c r="B522" t="n">
-        <v>5.875</v>
+        <v>5.5</v>
       </c>
       <c r="C522" t="n">
         <v>8.25</v>
@@ -15600,7 +15600,7 @@
         <v>44736</v>
       </c>
       <c r="B523" t="n">
-        <v>5.876</v>
+        <v>5.5</v>
       </c>
       <c r="C523" t="n">
         <v>8.25</v>
@@ -15658,7 +15658,7 @@
         <v>44739</v>
       </c>
       <c r="B525" t="n">
-        <v>5.876</v>
+        <v>5.5</v>
       </c>
       <c r="C525" t="n">
         <v>8.25</v>
@@ -15687,7 +15687,7 @@
         <v>44740</v>
       </c>
       <c r="B526" t="n">
-        <v>5.876</v>
+        <v>5.5</v>
       </c>
       <c r="C526" t="n">
         <v>8.25</v>
@@ -15716,7 +15716,7 @@
         <v>44741</v>
       </c>
       <c r="B527" t="n">
-        <v>5.877</v>
+        <v>5.5</v>
       </c>
       <c r="C527" t="n">
         <v>8.25</v>
@@ -15745,7 +15745,7 @@
         <v>44742</v>
       </c>
       <c r="B528" t="n">
-        <v>5.878</v>
+        <v>5.5</v>
       </c>
       <c r="C528" t="n">
         <v>8.25</v>
@@ -15774,7 +15774,7 @@
         <v>44743</v>
       </c>
       <c r="B529" t="n">
-        <v>6.666</v>
+        <v>5.5</v>
       </c>
       <c r="C529" t="n">
         <v>8.25</v>
@@ -15803,7 +15803,7 @@
         <v>44747</v>
       </c>
       <c r="B530" t="n">
-        <v>5.88</v>
+        <v>5.5</v>
       </c>
       <c r="C530" t="n">
         <v>8.25</v>
@@ -15832,7 +15832,7 @@
         <v>44748</v>
       </c>
       <c r="B531" t="n">
-        <v>5.88</v>
+        <v>5.5</v>
       </c>
       <c r="C531" t="n">
         <v>8.25</v>
@@ -15861,7 +15861,7 @@
         <v>44749</v>
       </c>
       <c r="B532" t="n">
-        <v>5.881</v>
+        <v>5.5</v>
       </c>
       <c r="C532" t="n">
         <v>8.25</v>
@@ -15890,7 +15890,7 @@
         <v>44753</v>
       </c>
       <c r="B533" t="n">
-        <v>6.67</v>
+        <v>6</v>
       </c>
       <c r="C533" t="n">
         <v>8.5</v>
@@ -15919,7 +15919,7 @@
         <v>44754</v>
       </c>
       <c r="B534" t="n">
-        <v>8.698</v>
+        <v>6.5</v>
       </c>
       <c r="C534" t="n">
         <v>8.699999999999999</v>
@@ -15948,7 +15948,7 @@
         <v>44755</v>
       </c>
       <c r="B535" t="n">
-        <v>8.698</v>
+        <v>8.4</v>
       </c>
       <c r="C535" t="n">
         <v>8.699999999999999</v>
@@ -15977,7 +15977,7 @@
         <v>44756</v>
       </c>
       <c r="B536" t="n">
-        <v>8.702999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="C536" t="n">
         <v>8.699999999999999</v>
@@ -16006,7 +16006,7 @@
         <v>44757</v>
       </c>
       <c r="B537" t="n">
-        <v>8.755000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C537" t="n">
         <v>8.699999999999999</v>
@@ -16035,7 +16035,7 @@
         <v>44760</v>
       </c>
       <c r="B538" t="n">
-        <v>8.755000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C538" t="n">
         <v>8.699999999999999</v>
@@ -16064,7 +16064,7 @@
         <v>44761</v>
       </c>
       <c r="B539" t="n">
-        <v>8.757</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C539" t="n">
         <v>8.699999999999999</v>
@@ -16093,7 +16093,7 @@
         <v>44762</v>
       </c>
       <c r="B540" t="n">
-        <v>8.757</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C540" t="n">
         <v>8.699999999999999</v>
@@ -16122,7 +16122,7 @@
         <v>44763</v>
       </c>
       <c r="B541" t="n">
-        <v>8.76</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C541" t="n">
         <v>8.699999999999999</v>
@@ -16151,7 +16151,7 @@
         <v>44764</v>
       </c>
       <c r="B542" t="n">
-        <v>8.762</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C542" t="n">
         <v>8.699999999999999</v>
@@ -16180,7 +16180,7 @@
         <v>44767</v>
       </c>
       <c r="B543" t="n">
-        <v>8.711</v>
+        <v>8.4</v>
       </c>
       <c r="C543" t="n">
         <v>8.699999999999999</v>
@@ -16209,7 +16209,7 @@
         <v>44768</v>
       </c>
       <c r="B544" t="n">
-        <v>8.712</v>
+        <v>8.4</v>
       </c>
       <c r="C544" t="n">
         <v>8.699999999999999</v>
@@ -16238,7 +16238,7 @@
         <v>44769</v>
       </c>
       <c r="B545" t="n">
-        <v>8.712999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="C545" t="n">
         <v>8.699999999999999</v>
@@ -16267,7 +16267,7 @@
         <v>44770</v>
       </c>
       <c r="B546" t="n">
-        <v>6.853</v>
+        <v>6.5</v>
       </c>
       <c r="C546" t="n">
         <v>8.699999999999999</v>
@@ -16296,7 +16296,7 @@
         <v>44771</v>
       </c>
       <c r="B547" t="n">
-        <v>7.97</v>
+        <v>7.68</v>
       </c>
       <c r="C547" t="n">
         <v>7.9</v>
@@ -16325,7 +16325,7 @@
         <v>44774</v>
       </c>
       <c r="B548" t="n">
-        <v>7.92</v>
+        <v>7.63</v>
       </c>
       <c r="C548" t="n">
         <v>7.66</v>
@@ -16354,7 +16354,7 @@
         <v>44775</v>
       </c>
       <c r="B549" t="n">
-        <v>7.921</v>
+        <v>7.63</v>
       </c>
       <c r="C549" t="n">
         <v>7.66</v>
@@ -16383,7 +16383,7 @@
         <v>44776</v>
       </c>
       <c r="B550" t="n">
-        <v>7.944</v>
+        <v>7.65</v>
       </c>
       <c r="C550" t="n">
         <v>7.78</v>
@@ -16412,7 +16412,7 @@
         <v>44777</v>
       </c>
       <c r="B551" t="n">
-        <v>7.945</v>
+        <v>7.65</v>
       </c>
       <c r="C551" t="n">
         <v>7.78</v>
@@ -16441,7 +16441,7 @@
         <v>44778</v>
       </c>
       <c r="B552" t="n">
-        <v>7.945</v>
+        <v>7.65</v>
       </c>
       <c r="C552" t="n">
         <v>7.78</v>
@@ -16470,7 +16470,7 @@
         <v>44781</v>
       </c>
       <c r="B553" t="n">
-        <v>7.999</v>
+        <v>7.7</v>
       </c>
       <c r="C553" t="n">
         <v>7.8</v>
@@ -16499,7 +16499,7 @@
         <v>44782</v>
       </c>
       <c r="B554" t="n">
-        <v>7.999</v>
+        <v>7.7</v>
       </c>
       <c r="C554" t="n">
         <v>7.8</v>
@@ -16528,7 +16528,7 @@
         <v>44783</v>
       </c>
       <c r="B555" t="n">
-        <v>7.484</v>
+        <v>7.2</v>
       </c>
       <c r="C555" t="n">
         <v>7.4</v>
@@ -16557,7 +16557,7 @@
         <v>44784</v>
       </c>
       <c r="B556" t="n">
-        <v>7.071</v>
+        <v>6.8</v>
       </c>
       <c r="C556" t="n">
         <v>7.1</v>
@@ -16586,28 +16586,28 @@
         <v>44785</v>
       </c>
       <c r="B557" t="n">
-        <v>7.019</v>
+        <v>6.75</v>
       </c>
       <c r="C557" t="n">
-        <v>7.284</v>
+        <v>7.05</v>
       </c>
       <c r="D557" t="n">
-        <v>7.425</v>
+        <v>7.3</v>
       </c>
       <c r="E557" t="n">
-        <v>7.525</v>
+        <v>7.41</v>
       </c>
       <c r="F557" t="n">
-        <v>7.625</v>
+        <v>7.64</v>
       </c>
       <c r="G557" t="n">
-        <v>7.625</v>
+        <v>7.43</v>
       </c>
       <c r="H557" t="n">
-        <v>7.625</v>
+        <v>7.56</v>
       </c>
       <c r="I557" t="n">
-        <v>7.625</v>
+        <v>7.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I557"/>
+  <dimension ref="A1:I558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16610,6 +16610,35 @@
         <v>7.56</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B558" t="n">
+        <v>7.021</v>
+      </c>
+      <c r="C558" t="n">
+        <v>7.185</v>
+      </c>
+      <c r="D558" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E558" t="n">
+        <v>7.395</v>
+      </c>
+      <c r="F558" t="n">
+        <v>7.433</v>
+      </c>
+      <c r="G558" t="n">
+        <v>7.455</v>
+      </c>
+      <c r="H558" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="I558" t="n">
+        <v>7.625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I558"/>
+  <dimension ref="A1:I559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16618,25 +16618,54 @@
         <v>7.021</v>
       </c>
       <c r="C558" t="n">
-        <v>7.185</v>
+        <v>7</v>
       </c>
       <c r="D558" t="n">
-        <v>7.4</v>
+        <v>7.398</v>
       </c>
       <c r="E558" t="n">
-        <v>7.395</v>
+        <v>7.29</v>
       </c>
       <c r="F558" t="n">
-        <v>7.433</v>
+        <v>7.507</v>
       </c>
       <c r="G558" t="n">
-        <v>7.455</v>
+        <v>7.37</v>
       </c>
       <c r="H558" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="I558" t="n">
+        <v>7.559</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B559" t="n">
+        <v>7.023</v>
+      </c>
+      <c r="C559" t="n">
+        <v>7.187</v>
+      </c>
+      <c r="D559" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="E559" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F559" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="G559" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="H559" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="I559" t="n">
         <v>7.65</v>
-      </c>
-      <c r="I558" t="n">
-        <v>7.625</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I559"/>
+  <dimension ref="A1:I560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16647,25 +16647,54 @@
         <v>7.023</v>
       </c>
       <c r="C559" t="n">
-        <v>7.187</v>
+        <v>7</v>
       </c>
       <c r="D559" t="n">
-        <v>7.42</v>
+        <v>7.05</v>
       </c>
       <c r="E559" t="n">
-        <v>7.52</v>
+        <v>7.27</v>
       </c>
       <c r="F559" t="n">
-        <v>7.57</v>
+        <v>7.26</v>
       </c>
       <c r="G559" t="n">
-        <v>7.58</v>
+        <v>7.34</v>
       </c>
       <c r="H559" t="n">
-        <v>7.66</v>
+        <v>7.46</v>
       </c>
       <c r="I559" t="n">
-        <v>7.65</v>
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B560" t="n">
+        <v>7.075</v>
+      </c>
+      <c r="C560" t="n">
+        <v>7.288</v>
+      </c>
+      <c r="D560" t="n">
+        <v>7.485</v>
+      </c>
+      <c r="E560" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F560" t="n">
+        <v>7.775</v>
+      </c>
+      <c r="G560" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="H560" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="I560" t="n">
+        <v>7.75</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I560"/>
+  <dimension ref="A1:I561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16676,25 +16676,54 @@
         <v>7.075</v>
       </c>
       <c r="C560" t="n">
-        <v>7.288</v>
+        <v>7.1</v>
       </c>
       <c r="D560" t="n">
-        <v>7.485</v>
+        <v>7.36</v>
       </c>
       <c r="E560" t="n">
         <v>7.49</v>
       </c>
       <c r="F560" t="n">
-        <v>7.775</v>
+        <v>7.59</v>
       </c>
       <c r="G560" t="n">
-        <v>7.62</v>
+        <v>7.61</v>
       </c>
       <c r="H560" t="n">
-        <v>7.69</v>
+        <v>7.6</v>
       </c>
       <c r="I560" t="n">
-        <v>7.75</v>
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B561" t="n">
+        <v>7.376</v>
+      </c>
+      <c r="C561" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D561" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E561" t="n">
+        <v>7.625</v>
+      </c>
+      <c r="F561" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="G561" t="n">
+        <v>7.735</v>
+      </c>
+      <c r="H561" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="I561" t="n">
+        <v>7.78</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -16708,7 +16708,7 @@
         <v>7.25</v>
       </c>
       <c r="D561" t="n">
-        <v>7.49</v>
+        <v>7.36</v>
       </c>
       <c r="E561" t="n">
         <v>7.625</v>
@@ -16723,7 +16723,7 @@
         <v>7.58</v>
       </c>
       <c r="I561" t="n">
-        <v>7.78</v>
+        <v>7.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -16711,13 +16711,13 @@
         <v>7.36</v>
       </c>
       <c r="E561" t="n">
-        <v>7.625</v>
+        <v>7.54</v>
       </c>
       <c r="F561" t="n">
-        <v>7.72</v>
+        <v>7.59</v>
       </c>
       <c r="G561" t="n">
-        <v>7.735</v>
+        <v>7.63</v>
       </c>
       <c r="H561" t="n">
         <v>7.58</v>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I561"/>
+  <dimension ref="A1:I562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16726,6 +16726,35 @@
         <v>7.65</v>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B562" t="n">
+        <v>7.377</v>
+      </c>
+      <c r="C562" t="n">
+        <v>7.442</v>
+      </c>
+      <c r="D562" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E562" t="n">
+        <v>7.653</v>
+      </c>
+      <c r="F562" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="G562" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="H562" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="I562" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I562"/>
+  <dimension ref="A1:I563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16755,6 +16755,35 @@
         <v>7.79</v>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B563" t="n">
+        <v>7.378</v>
+      </c>
+      <c r="C563" t="n">
+        <v>7.419</v>
+      </c>
+      <c r="D563" t="n">
+        <v>7.425</v>
+      </c>
+      <c r="E563" t="n">
+        <v>7.525</v>
+      </c>
+      <c r="F563" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="G563" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="H563" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="I563" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I563"/>
+  <dimension ref="A1:I564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16734,25 +16734,25 @@
         <v>7.377</v>
       </c>
       <c r="C562" t="n">
-        <v>7.442</v>
+        <v>7.25</v>
       </c>
       <c r="D562" t="n">
-        <v>7.47</v>
+        <v>7.36</v>
       </c>
       <c r="E562" t="n">
-        <v>7.653</v>
+        <v>7.54</v>
       </c>
       <c r="F562" t="n">
-        <v>7.73</v>
+        <v>7.61</v>
       </c>
       <c r="G562" t="n">
-        <v>7.75</v>
+        <v>7.62</v>
       </c>
       <c r="H562" t="n">
-        <v>7.79</v>
+        <v>7.67</v>
       </c>
       <c r="I562" t="n">
-        <v>7.79</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="563">
@@ -16763,25 +16763,54 @@
         <v>7.378</v>
       </c>
       <c r="C563" t="n">
-        <v>7.419</v>
+        <v>7.25</v>
       </c>
       <c r="D563" t="n">
-        <v>7.425</v>
+        <v>7.36</v>
       </c>
       <c r="E563" t="n">
-        <v>7.525</v>
+        <v>7.54</v>
       </c>
       <c r="F563" t="n">
-        <v>7.76</v>
+        <v>7.63</v>
       </c>
       <c r="G563" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="H563" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I563" t="n">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B564" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C564" t="n">
+        <v>7.422</v>
+      </c>
+      <c r="D564" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E564" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F564" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="G564" t="n">
         <v>7.77</v>
       </c>
-      <c r="H563" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="I563" t="n">
-        <v>7.85</v>
+      <c r="H564" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="I564" t="n">
+        <v>7.88</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I564"/>
+  <dimension ref="A1:I565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16792,7 +16792,7 @@
         <v>7.38</v>
       </c>
       <c r="C564" t="n">
-        <v>7.422</v>
+        <v>7.25</v>
       </c>
       <c r="D564" t="n">
         <v>7.49</v>
@@ -16807,10 +16807,39 @@
         <v>7.77</v>
       </c>
       <c r="H564" t="n">
-        <v>7.88</v>
+        <v>7.76</v>
       </c>
       <c r="I564" t="n">
-        <v>7.88</v>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B565" t="n">
+        <v>7.391</v>
+      </c>
+      <c r="C565" t="n">
+        <v>7.423</v>
+      </c>
+      <c r="D565" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="E565" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F565" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="G565" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H565" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="I565" t="n">
+        <v>8.07</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I565"/>
+  <dimension ref="A1:I566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16821,25 +16821,54 @@
         <v>7.391</v>
       </c>
       <c r="C565" t="n">
-        <v>7.423</v>
+        <v>7.25</v>
       </c>
       <c r="D565" t="n">
-        <v>7.59</v>
+        <v>7.47</v>
       </c>
       <c r="E565" t="n">
         <v>7.71</v>
       </c>
       <c r="F565" t="n">
-        <v>7.89</v>
+        <v>7.77</v>
       </c>
       <c r="G565" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="H565" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="I565" t="n">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B566" t="n">
+        <v>7.391</v>
+      </c>
+      <c r="C566" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D566" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E566" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F566" t="n">
         <v>7.9</v>
       </c>
-      <c r="H565" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="I565" t="n">
-        <v>8.07</v>
+      <c r="G566" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="H566" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="I566" t="n">
+        <v>7.99</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -16856,10 +16856,10 @@
         <v>7.47</v>
       </c>
       <c r="E566" t="n">
-        <v>7.8</v>
+        <v>7.68</v>
       </c>
       <c r="F566" t="n">
-        <v>7.9</v>
+        <v>7.78</v>
       </c>
       <c r="G566" t="n">
         <v>7.78</v>
@@ -16868,7 +16868,7 @@
         <v>7.9</v>
       </c>
       <c r="I566" t="n">
-        <v>7.99</v>
+        <v>7.87</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I566"/>
+  <dimension ref="A1:I568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16871,6 +16871,64 @@
         <v>7.87</v>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>44800</v>
+      </c>
+      <c r="B567" t="n">
+        <v>7.391</v>
+      </c>
+      <c r="C567" t="n">
+        <v>7.423</v>
+      </c>
+      <c r="D567" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E567" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F567" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G567" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H567" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="I567" t="n">
+        <v>8.039999999999999</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B568" t="n">
+        <v>7.341</v>
+      </c>
+      <c r="C568" t="n">
+        <v>7.374</v>
+      </c>
+      <c r="D568" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E568" t="n">
+        <v>7.815</v>
+      </c>
+      <c r="F568" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="G568" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="H568" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="I568" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I568"/>
+  <dimension ref="A1:I569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16908,25 +16908,54 @@
         <v>7.341</v>
       </c>
       <c r="C568" t="n">
-        <v>7.374</v>
+        <v>7.2</v>
       </c>
       <c r="D568" t="n">
-        <v>7.55</v>
+        <v>7.43</v>
       </c>
       <c r="E568" t="n">
-        <v>7.815</v>
+        <v>7.68</v>
       </c>
       <c r="F568" t="n">
-        <v>7.98</v>
+        <v>7.86</v>
       </c>
       <c r="G568" t="n">
-        <v>7.98</v>
+        <v>7.86</v>
       </c>
       <c r="H568" t="n">
         <v>7.95</v>
       </c>
       <c r="I568" t="n">
-        <v>8.06</v>
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B569" t="n">
+        <v>7.341</v>
+      </c>
+      <c r="C569" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D569" t="n">
+        <v>7.525</v>
+      </c>
+      <c r="E569" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F569" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="G569" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="H569" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="I569" t="n">
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I569"/>
+  <dimension ref="A1:I570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16940,22 +16940,51 @@
         <v>7.2</v>
       </c>
       <c r="D569" t="n">
-        <v>7.525</v>
+        <v>7.43</v>
       </c>
       <c r="E569" t="n">
         <v>7.69</v>
       </c>
       <c r="F569" t="n">
-        <v>7.85</v>
+        <v>7.9</v>
       </c>
       <c r="G569" t="n">
-        <v>7.84</v>
+        <v>7.97</v>
       </c>
       <c r="H569" t="n">
         <v>7.82</v>
       </c>
       <c r="I569" t="n">
         <v>7.9</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B570" t="n">
+        <v>7.344</v>
+      </c>
+      <c r="C570" t="n">
+        <v>7.377</v>
+      </c>
+      <c r="D570" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="E570" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F570" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="G570" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="H570" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="I570" t="n">
+        <v>7.85</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I570"/>
+  <dimension ref="A1:I571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16966,25 +16966,54 @@
         <v>7.344</v>
       </c>
       <c r="C570" t="n">
-        <v>7.377</v>
+        <v>7.2</v>
       </c>
       <c r="D570" t="n">
-        <v>7.48</v>
+        <v>7.26</v>
       </c>
       <c r="E570" t="n">
-        <v>7.65</v>
+        <v>7.57</v>
       </c>
       <c r="F570" t="n">
-        <v>7.73</v>
+        <v>7.66</v>
       </c>
       <c r="G570" t="n">
-        <v>7.84</v>
+        <v>7.69</v>
       </c>
       <c r="H570" t="n">
         <v>7.62</v>
       </c>
       <c r="I570" t="n">
-        <v>7.85</v>
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B571" t="n">
+        <v>7.527</v>
+      </c>
+      <c r="C571" t="n">
+        <v>7.377</v>
+      </c>
+      <c r="D571" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E571" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F571" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="G571" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="H571" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="I571" t="n">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I571"/>
+  <dimension ref="A1:I572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16995,25 +16995,54 @@
         <v>7.527</v>
       </c>
       <c r="C571" t="n">
-        <v>7.377</v>
+        <v>7.2</v>
       </c>
       <c r="D571" t="n">
-        <v>7.46</v>
+        <v>7.25</v>
       </c>
       <c r="E571" t="n">
-        <v>7.65</v>
+        <v>7.62</v>
       </c>
       <c r="F571" t="n">
-        <v>7.78</v>
+        <v>7.71</v>
       </c>
       <c r="G571" t="n">
-        <v>7.82</v>
+        <v>7.71</v>
       </c>
       <c r="H571" t="n">
-        <v>7.83</v>
+        <v>7.71</v>
       </c>
       <c r="I571" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B572" t="n">
+        <v>7.344</v>
+      </c>
+      <c r="C572" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D572" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="E572" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F572" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="G572" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H572" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="I572" t="n">
+        <v>7.69</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I572"/>
+  <dimension ref="A1:I573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17045,6 +17045,35 @@
         <v>7.69</v>
       </c>
     </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B573" t="n">
+        <v>7.345</v>
+      </c>
+      <c r="C573" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D573" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="E573" t="n">
+        <v>7.835</v>
+      </c>
+      <c r="F573" t="n">
+        <v>7.725</v>
+      </c>
+      <c r="G573" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="H573" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="I573" t="n">
+        <v>7.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I573"/>
+  <dimension ref="A1:I574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17059,19 +17059,48 @@
         <v>7.27</v>
       </c>
       <c r="E573" t="n">
-        <v>7.835</v>
+        <v>7.69</v>
       </c>
       <c r="F573" t="n">
-        <v>7.725</v>
+        <v>7.62</v>
       </c>
       <c r="G573" t="n">
-        <v>7.88</v>
+        <v>7.73</v>
       </c>
       <c r="H573" t="n">
         <v>7.67</v>
       </c>
       <c r="I573" t="n">
-        <v>7.81</v>
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B574" t="n">
+        <v>7.503</v>
+      </c>
+      <c r="C574" t="n">
+        <v>7.581</v>
+      </c>
+      <c r="D574" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="E574" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F574" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="G574" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H574" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="I574" t="n">
+        <v>7.93</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I574"/>
+  <dimension ref="A1:I576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17082,25 +17082,83 @@
         <v>7.503</v>
       </c>
       <c r="C574" t="n">
-        <v>7.581</v>
+        <v>7.4</v>
       </c>
       <c r="D574" t="n">
-        <v>7.53</v>
+        <v>7.3</v>
       </c>
       <c r="E574" t="n">
-        <v>7.86</v>
+        <v>7.82</v>
       </c>
       <c r="F574" t="n">
-        <v>7.86</v>
+        <v>7.82</v>
       </c>
       <c r="G574" t="n">
-        <v>7.9</v>
+        <v>7.83</v>
       </c>
       <c r="H574" t="n">
-        <v>7.93</v>
+        <v>7.81</v>
       </c>
       <c r="I574" t="n">
-        <v>7.93</v>
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B575" t="n">
+        <v>7.505</v>
+      </c>
+      <c r="C575" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D575" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="E575" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="F575" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G575" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="H575" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="I575" t="n">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B576" t="n">
+        <v>7.506</v>
+      </c>
+      <c r="C576" t="n">
+        <v>7.584</v>
+      </c>
+      <c r="D576" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E576" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F576" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="G576" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="H576" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="I576" t="n">
+        <v>8.06</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I576"/>
+  <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17140,25 +17140,54 @@
         <v>7.506</v>
       </c>
       <c r="C576" t="n">
-        <v>7.584</v>
+        <v>7.4</v>
       </c>
       <c r="D576" t="n">
-        <v>7.72</v>
+        <v>7.6</v>
       </c>
       <c r="E576" t="n">
-        <v>7.98</v>
+        <v>7.86</v>
       </c>
       <c r="F576" t="n">
-        <v>7.98</v>
+        <v>7.86</v>
       </c>
       <c r="G576" t="n">
-        <v>8.01</v>
+        <v>7.89</v>
       </c>
       <c r="H576" t="n">
-        <v>8.07</v>
+        <v>7.95</v>
       </c>
       <c r="I576" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B577" t="n">
+        <v>7.741</v>
+      </c>
+      <c r="C577" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D577" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="E577" t="n">
+        <v>8</v>
+      </c>
+      <c r="F577" t="n">
+        <v>8</v>
+      </c>
+      <c r="G577" t="n">
         <v>8.06</v>
+      </c>
+      <c r="H577" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="I577" t="n">
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -17172,22 +17172,22 @@
         <v>7.4</v>
       </c>
       <c r="D577" t="n">
-        <v>7.73</v>
+        <v>7.61</v>
       </c>
       <c r="E577" t="n">
-        <v>8</v>
+        <v>7.88</v>
       </c>
       <c r="F577" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="G577" t="n">
-        <v>8.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="H577" t="n">
-        <v>8.09</v>
+        <v>7.97</v>
       </c>
       <c r="I577" t="n">
-        <v>8.1</v>
+        <v>7.98</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I577"/>
+  <dimension ref="A1:I580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17190,6 +17190,93 @@
         <v>7.98</v>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B578" t="n">
+        <v>7.506</v>
+      </c>
+      <c r="C578" t="n">
+        <v>7.584</v>
+      </c>
+      <c r="D578" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="E578" t="n">
+        <v>8</v>
+      </c>
+      <c r="F578" t="n">
+        <v>8</v>
+      </c>
+      <c r="G578" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="H578" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="I578" t="n">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B579" t="n">
+        <v>7.741</v>
+      </c>
+      <c r="C579" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D579" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="E579" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="F579" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="G579" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="H579" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="I579" t="n">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B580" t="n">
+        <v>7.509</v>
+      </c>
+      <c r="C580" t="n">
+        <v>7.688</v>
+      </c>
+      <c r="D580" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="E580" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F580" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="G580" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="H580" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="I580" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Romania.xlsx
+++ b/Bonds_Romania.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I580"/>
+  <dimension ref="A1:I581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17256,25 +17256,54 @@
         <v>7.509</v>
       </c>
       <c r="C580" t="n">
-        <v>7.688</v>
+        <v>7.5</v>
       </c>
       <c r="D580" t="n">
-        <v>7.64</v>
+        <v>7.5</v>
       </c>
       <c r="E580" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F580" t="n">
         <v>7.91</v>
       </c>
-      <c r="F580" t="n">
-        <v>7.92</v>
-      </c>
       <c r="G580" t="n">
-        <v>7.97</v>
+        <v>7.94</v>
       </c>
       <c r="H580" t="n">
         <v>7.88</v>
       </c>
       <c r="I580" t="n">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B581" t="n">
+        <v>7.509</v>
+      </c>
+      <c r="C581" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D581" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="E581" t="n">
         <v>8</v>
+      </c>
+      <c r="F581" t="n">
+        <v>8.045</v>
+      </c>
+      <c r="G581" t="n">
+        <v>8.074999999999999</v>
+      </c>
+      <c r="H581" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="I581" t="n">
+        <v>7.83</v>
       </c>
     </row>
   </sheetData>
